--- a/dictionary/english/dictionary.xlsx
+++ b/dictionary/english/dictionary.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="verb" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="adverb" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="proposition" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="name" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -215,6 +216,24 @@
   </si>
   <si>
     <t xml:space="preserve">future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosquito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chameleon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salamander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bee</t>
   </si>
 </sst>
 </file>
@@ -224,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -251,6 +270,11 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Mono;Courier New;DejaVu Sans Mono;Monaco"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -295,7 +319,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,6 +333,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1051,7 +1079,7 @@
   </sheetPr>
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1070,6 +1098,81 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary/english/dictionary.xlsx
+++ b/dictionary/english/dictionary.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="verb" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="adverb" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="proposition" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="name" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="word_example" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
-  <si>
-    <t xml:space="preserve">id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+  <si>
+    <t xml:space="preserve">sku</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">voice</t>
   </si>
   <si>
-    <t xml:space="preserve">root_id</t>
+    <t xml:space="preserve">root</t>
   </si>
   <si>
     <t xml:space="preserve">type</t>
@@ -47,21 +47,12 @@
     <t xml:space="preserve">version</t>
   </si>
   <si>
-    <t xml:space="preserve">examples</t>
-  </si>
-  <si>
     <t xml:space="preserve">ka</t>
   </si>
   <si>
     <t xml:space="preserve">consonne</t>
   </si>
   <si>
-    <t xml:space="preserve">1|2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaka| akkk</t>
-  </si>
-  <si>
     <t xml:space="preserve">la</t>
   </si>
   <si>
@@ -101,13 +92,13 @@
     <t xml:space="preserve">similar</t>
   </si>
   <si>
-    <t xml:space="preserve">latin_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ancestorId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descendantId</t>
+    <t xml:space="preserve">latin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancestor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descendant</t>
   </si>
   <si>
     <t xml:space="preserve">߁</t>
@@ -218,22 +209,10 @@
     <t xml:space="preserve">future</t>
   </si>
   <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosquito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chameleon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salamander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bee</t>
+    <t xml:space="preserve">word_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">example</t>
   </si>
 </sst>
 </file>
@@ -243,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -270,11 +249,6 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Liberation Mono;Courier New;DejaVu Sans Mono;Monaco"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,12 +293,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,10 +303,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,81 +429,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="34.98"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="G3" s="1" t="n">
@@ -545,20 +502,20 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="n">
@@ -566,20 +523,20 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">1+A4</f>
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="n">
@@ -587,20 +544,20 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">1+A5</f>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="n">
@@ -608,80 +565,80 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">1+A6</f>
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="E10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="n">
@@ -707,257 +664,257 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <f aca="false">1+A2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">1+G2</f>
         <v>2</v>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <f aca="false">1+A3</f>
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="n">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <f aca="false">1+G3</f>
         <v>3</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <f aca="false">1+A4</f>
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="n">
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <f aca="false">1+G4</f>
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <f aca="false">1+A5</f>
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="1" t="n">
         <f aca="false">1+G5</f>
         <v>5</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <f aca="false">1+A6</f>
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="n">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="n">
         <f aca="false">1+G6</f>
         <v>6</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="G10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -980,85 +937,85 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1087,17 +1044,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1116,10 +1073,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1129,50 +1086,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary/english/dictionary.xlsx
+++ b/dictionary/english/dictionary.xlsx
@@ -24,72 +24,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kalama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kayama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">similar</t>
+  </si>
   <si>
     <t xml:space="preserve">sku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consonne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kalama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">penis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kayama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">similar</t>
   </si>
   <si>
     <t xml:space="preserve">latin</t>
@@ -432,7 +435,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -671,10 +674,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -686,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -700,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -724,10 +727,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -749,10 +752,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -774,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -799,10 +802,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -824,10 +827,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -848,10 +851,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -871,10 +874,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -883,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
@@ -897,10 +900,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -909,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>9</v>
@@ -944,13 +947,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -980,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,20 +1005,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1044,17 +1047,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1082,14 +1085,14 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary/english/dictionary.xlsx
+++ b/dictionary/english/dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve">similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sku</t>
   </si>
   <si>
     <t xml:space="preserve">latin</t>
@@ -667,17 +664,17 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -689,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -703,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -727,10 +724,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
@@ -752,10 +749,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -777,10 +774,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -802,10 +799,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
@@ -827,10 +824,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -851,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -874,10 +871,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -886,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>8</v>
@@ -900,10 +897,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -912,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>9</v>
@@ -940,20 +937,20 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,10 +969,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,10 +991,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,20 +1002,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1047,17 +1044,17 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1079,20 +1076,20 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary/english/dictionary.xlsx
+++ b/dictionary/english/dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="word" sheetId="1" state="visible" r:id="rId3"/>
@@ -13,6 +13,8 @@
     <sheet name="adverb" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="proposition" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="word_example" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="animal" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="name" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -213,6 +215,15 @@
   </si>
   <si>
     <t xml:space="preserve">example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dog</t>
   </si>
 </sst>
 </file>
@@ -431,7 +442,7 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1101,4 +1112,85 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>